--- a/DataSets/DataSet.xlsx
+++ b/DataSets/DataSet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="494" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Shanghai" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -96,6 +96,66 @@
   </si>
   <si>
     <t>Temp Diff</t>
+  </si>
+  <si>
+    <t>Date Recorded</t>
+  </si>
+  <si>
+    <t>Recorded By</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-05 09:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-04 09:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-06 09:09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-07 09:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-06 09:08:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-07 09:03:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-06 09:07:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-07 09:02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-06 09:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-07 09:01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-06 09:03:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-07 09:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-06-06 09:01:00</t>
   </si>
 </sst>
 </file>
@@ -131,11 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,21 +511,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="F1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,16 +573,22 @@
       <c r="O1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>43254</v>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D2">
         <v>28</v>
@@ -546,30 +615,36 @@
       <c r="K2">
         <v>41</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>0.20138888888888887</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>0.78819444444444453</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <f>M2-L2</f>
         <v>0.58680555555555569</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <f xml:space="preserve"> 24 - N2</f>
         <v>23.413194444444443</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>43255</v>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D3">
         <v>27</v>
@@ -596,61 +671,172 @@
       <c r="K3">
         <v>59</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0.20138888888888887</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0.78819444444444453</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <f>M3-L3</f>
         <v>0.58680555555555569</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <f xml:space="preserve"> 24 - N3</f>
         <v>23.413194444444443</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <f>D4-E4</f>
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>24.6</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>143</v>
+      </c>
+      <c r="J4" s="3">
+        <v>85</v>
+      </c>
+      <c r="K4" s="3">
+        <v>58</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="N4" s="1">
+        <f>M4-L4</f>
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="O4" s="2">
+        <f xml:space="preserve"> 24 - N4</f>
+        <v>23.412500000000001</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <f>D5-E5</f>
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>23.3</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>118</v>
+      </c>
+      <c r="J5" s="3">
+        <v>88</v>
+      </c>
+      <c r="K5" s="3">
+        <v>51</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="N5" s="1">
+        <f>M5-L5</f>
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="O5" s="2">
+        <f xml:space="preserve"> 24 - N5</f>
+        <v>23.412500000000001</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="22.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -696,16 +882,22 @@
       <c r="O1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>43254</v>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D2">
         <v>29</v>
@@ -732,30 +924,36 @@
       <c r="K2">
         <v>28</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>0.19930555555555554</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>0.81805555555555554</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <f>M2-L2</f>
         <v>0.61875000000000002</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <f xml:space="preserve"> 24 - N2</f>
         <v>23.381250000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <v>43255</v>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D3">
         <v>34</v>
@@ -782,19 +980,137 @@
       <c r="K3">
         <v>14</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0.19930555555555554</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0.81874999999999998</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <f>M3-L3</f>
         <v>0.61944444444444446</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <f xml:space="preserve"> 24 - N3</f>
         <v>23.380555555555556</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <f>D4-E4</f>
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>28.4</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>131</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.1986111111111111</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="N4" s="1">
+        <f>M4-L4</f>
+        <v>0.62083333333333346</v>
+      </c>
+      <c r="O4" s="2">
+        <f xml:space="preserve"> 24 - N4</f>
+        <v>23.379166666666666</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <f>D5-E5</f>
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>26.2</v>
+      </c>
+      <c r="H5">
+        <v>0.6</v>
+      </c>
+      <c r="I5">
+        <v>133</v>
+      </c>
+      <c r="J5">
+        <v>54</v>
+      </c>
+      <c r="K5">
+        <v>23</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.1986111111111111</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="N5" s="1">
+        <f>M5-L5</f>
+        <v>0.62083333333333346</v>
+      </c>
+      <c r="O5" s="2">
+        <f xml:space="preserve"> 24 - N5</f>
+        <v>23.379166666666666</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -804,15 +1120,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -858,16 +1177,22 @@
       <c r="O1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
-        <v>43254</v>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D2">
         <v>32</v>
@@ -894,30 +1219,36 @@
       <c r="K2">
         <v>57</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>0.23541666666666669</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>0.79583333333333339</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <f>M2-L2</f>
         <v>0.56041666666666667</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <f xml:space="preserve"> 24 - N2</f>
         <v>23.439583333333335</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
-        <v>43255</v>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D3">
         <v>31</v>
@@ -944,19 +1275,137 @@
       <c r="K3">
         <v>61</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0.23541666666666669</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0.79583333333333339</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <f>M3-L3</f>
         <v>0.56041666666666667</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <f xml:space="preserve"> 24 - N3</f>
         <v>23.439583333333335</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <f>D4-E4</f>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>10.7</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>98</v>
+      </c>
+      <c r="K4">
+        <v>77</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.23541666666666669</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.79652777777777783</v>
+      </c>
+      <c r="N4" s="1">
+        <f>M4-L4</f>
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="O4" s="2">
+        <f xml:space="preserve"> 24 - N4</f>
+        <v>23.43888888888889</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <f>D5-E5</f>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>25.2</v>
+      </c>
+      <c r="H5">
+        <v>136.1</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>99</v>
+      </c>
+      <c r="K5">
+        <v>95</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.23541666666666669</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.79652777777777783</v>
+      </c>
+      <c r="N5" s="1">
+        <f>M5-L5</f>
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="O5" s="2">
+        <f xml:space="preserve"> 24 - N5</f>
+        <v>23.43888888888889</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -966,15 +1415,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1020,16 +1472,22 @@
       <c r="O1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1">
-        <v>43254</v>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D2">
         <v>24</v>
@@ -1056,30 +1514,36 @@
       <c r="K2">
         <v>72</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>0.25069444444444444</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>0.8354166666666667</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <f>M2-L2</f>
         <v>0.58472222222222225</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <f xml:space="preserve"> 24 - N2</f>
         <v>23.415277777777778</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1">
-        <v>43255</v>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -1106,19 +1570,137 @@
       <c r="K3">
         <v>36</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0.25069444444444444</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0.83611111111111114</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <f>M3-L3</f>
         <v>0.5854166666666667</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <f xml:space="preserve"> 24 - N3</f>
         <v>23.414583333333333</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <f>D4-E4</f>
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <v>92</v>
+      </c>
+      <c r="K4">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.83611111111111114</v>
+      </c>
+      <c r="N4" s="1">
+        <f>M4-L4</f>
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="O4" s="2">
+        <f xml:space="preserve"> 24 - N4</f>
+        <v>23.414583333333333</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <f>D5-E5</f>
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>26.4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>125</v>
+      </c>
+      <c r="J5">
+        <v>87</v>
+      </c>
+      <c r="K5">
+        <v>35</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="N5" s="1">
+        <f>M5-L5</f>
+        <v>0.58611111111111103</v>
+      </c>
+      <c r="O5" s="2">
+        <f xml:space="preserve"> 24 - N5</f>
+        <v>23.413888888888888</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1128,15 +1710,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="24.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1182,16 +1767,22 @@
       <c r="O1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1">
-        <v>43254</v>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D2">
         <v>27</v>
@@ -1218,30 +1809,36 @@
       <c r="K2">
         <v>38</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>0.2076388888888889</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>0.79722222222222217</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <f>M2-L2</f>
         <v>0.58958333333333324</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <f xml:space="preserve"> 24 - N2</f>
         <v>23.410416666666666</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
-        <v>43255</v>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D3">
         <v>29</v>
@@ -1268,19 +1865,137 @@
       <c r="K3">
         <v>43</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0.2076388888888889</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0.79722222222222217</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <f>M3-L3</f>
         <v>0.58958333333333324</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <f xml:space="preserve"> 24 - N3</f>
         <v>23.410416666666666</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <f>D4-E4</f>
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>25.5</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>98</v>
+      </c>
+      <c r="J4">
+        <v>92</v>
+      </c>
+      <c r="K4">
+        <v>54</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.2076388888888889</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="N4" s="1">
+        <f>M4-L4</f>
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="O4" s="2">
+        <f xml:space="preserve"> 24 - N4</f>
+        <v>23.409722222222221</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <f>D5-E5</f>
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>26.2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>108</v>
+      </c>
+      <c r="J5">
+        <v>89</v>
+      </c>
+      <c r="K5">
+        <v>45</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.20694444444444446</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="N5" s="1">
+        <f>M5-L5</f>
+        <v>0.59097222222222212</v>
+      </c>
+      <c r="O5" s="2">
+        <f xml:space="preserve"> 24 - N5</f>
+        <v>23.409027777777776</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1290,15 +2005,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="35.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1344,16 +2062,22 @@
       <c r="O1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1">
-        <v>43254</v>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D2">
         <v>25</v>
@@ -1380,30 +2104,36 @@
       <c r="K2">
         <v>58</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>0.20694444444444446</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>0.79027777777777775</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <f>M2-L2</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <f xml:space="preserve"> 24 - N2</f>
         <v>23.416666666666668</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1">
-        <v>43255</v>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D3">
         <v>29</v>
@@ -1430,19 +2160,134 @@
       <c r="K3">
         <v>47</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0.20694444444444446</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0.79027777777777775</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <f>M3-L3</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <f xml:space="preserve"> 24 - N3</f>
         <v>23.416666666666668</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <f>D4-E4</f>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>23.7</v>
+      </c>
+      <c r="I4">
+        <v>54</v>
+      </c>
+      <c r="J4">
+        <v>97</v>
+      </c>
+      <c r="K4">
+        <v>77</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="N4" s="1">
+        <f>M4-L4</f>
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="O4" s="2">
+        <f xml:space="preserve"> 24 - N4</f>
+        <v>23.415277777777778</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <f>D5-E5</f>
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>25.1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>107</v>
+      </c>
+      <c r="J5">
+        <v>95</v>
+      </c>
+      <c r="K5">
+        <v>57</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="N5" s="1">
+        <f>M5-L5</f>
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="O5" s="2">
+        <f xml:space="preserve"> 24 - N5</f>
+        <v>23.415277777777778</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1452,15 +2297,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="16" max="16" width="31.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1506,16 +2355,22 @@
       <c r="O1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1">
-        <v>43254</v>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D2">
         <v>29</v>
@@ -1542,30 +2397,36 @@
       <c r="K2">
         <v>47</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>0.22291666666666665</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>0.80763888888888891</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <f>M2-L2</f>
         <v>0.58472222222222225</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <f xml:space="preserve"> 24 - N2</f>
         <v>23.415277777777778</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1">
-        <v>43255</v>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D3">
         <v>28</v>
@@ -1592,22 +2453,141 @@
       <c r="K3">
         <v>59</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0.22291666666666665</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0.80833333333333324</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <f>M3-L3</f>
         <v>0.58541666666666659</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <f xml:space="preserve"> 24 - N3</f>
         <v>23.414583333333333</v>
       </c>
+      <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <f>D4-E4</f>
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>24.5</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>94</v>
+      </c>
+      <c r="J4">
+        <v>99</v>
+      </c>
+      <c r="K4">
+        <v>69</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.80833333333333324</v>
+      </c>
+      <c r="N4" s="1">
+        <f>M4-L4</f>
+        <v>0.58541666666666659</v>
+      </c>
+      <c r="O4" s="2">
+        <f xml:space="preserve"> 24 - N4</f>
+        <v>23.414583333333333</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <f>D5-E5</f>
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>103</v>
+      </c>
+      <c r="J5">
+        <v>98</v>
+      </c>
+      <c r="K5">
+        <v>43</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="N5" s="1">
+        <f>M5-L5</f>
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="O5" s="2">
+        <f xml:space="preserve"> 24 - N5</f>
+        <v>23.413888888888888</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>